--- a/biology/Zoologie/Archaeoroncus_dalmatinus/Archaeoroncus_dalmatinus.xlsx
+++ b/biology/Zoologie/Archaeoroncus_dalmatinus/Archaeoroncus_dalmatinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoroncus dalmatinus est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Croatie[1]. Elle se rencontre vers le Marjan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Croatie. Elle se rencontre vers le Marjan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,86 à 2,91 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,86 à 2,91 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Roncus lubricus dalmatinus par Hadži en 1933. Elle est élevée au rang d'espèce par Ćurčić, Dimitrijević et Karamata en 1992[3]. Elle est placée dans le genre Archaeoroncus par Ćurčić, Dimitrijević, Rađa, Makarov et Ilić en 2012[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Roncus lubricus dalmatinus par Hadži en 1933. Elle est élevée au rang d'espèce par Ćurčić, Dimitrijević et Karamata en 1992. Elle est placée dans le genre Archaeoroncus par Ćurčić, Dimitrijević, Rađa, Makarov et Ilić en 2012.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Dalmatie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hadži, 1933 : Prinos poznavanju pseudoskorpijske faune Primorja. Prirodoslovna Istraživanja Kraljevine Jugoslavije, vol. 18, p. 125-192.</t>
         </is>
